--- a/output/part1/grs_size_bm_inv.xlsx
+++ b/output/part1/grs_size_bm_inv.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.836876309143591</v>
+        <v>12.62555539199553</v>
       </c>
       <c r="C2" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.108067977400238</v>
+        <v>0.009911156927268711</v>
       </c>
       <c r="E2" t="n">
-        <v>-39.83455502350076</v>
+        <v>1.452258593099055</v>
       </c>
       <c r="F2" t="n">
-        <v>1586.791773920309</v>
+        <v>2.109055021230046</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.544771217441715</v>
+        <v>12.65320434403941</v>
       </c>
       <c r="C3" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1049470280927429</v>
+        <v>0.009900073611160558</v>
       </c>
       <c r="E3" t="n">
-        <v>-38.68415293487339</v>
+        <v>1.450634580768687</v>
       </c>
       <c r="F3" t="n">
-        <v>1496.463688288673</v>
+        <v>2.104340686921944</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.864219250927368</v>
+        <v>13.25310249097062</v>
       </c>
       <c r="C4" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1037443542981963</v>
+        <v>0.009406730847589709</v>
       </c>
       <c r="E4" t="n">
-        <v>-38.24083960009374</v>
+        <v>1.378346222003244</v>
       </c>
       <c r="F4" t="n">
-        <v>1462.361813320098</v>
+        <v>1.899838307710617</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.04662562060227</v>
+        <v>13.27123803194278</v>
       </c>
       <c r="C5" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09525415319350782</v>
+        <v>0.00984932230049297</v>
       </c>
       <c r="E5" t="n">
-        <v>-35.11129659205966</v>
+        <v>1.44319811017611</v>
       </c>
       <c r="F5" t="n">
-        <v>1232.80314837558</v>
+        <v>2.082820785215896</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.608391226915137</v>
+        <v>13.26180234133492</v>
       </c>
       <c r="C6" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1010174902234026</v>
+        <v>0.0093988266816417</v>
       </c>
       <c r="E6" t="n">
-        <v>-37.23569987561567</v>
+        <v>1.37718804309401</v>
       </c>
       <c r="F6" t="n">
-        <v>1386.497345226925</v>
+        <v>1.896646906041108</v>
       </c>
     </row>
   </sheetData>
